--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6079,6 +6079,43 @@
         </is>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6116,6 +6116,43 @@
         </is>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6153,6 +6153,43 @@
         </is>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6190,6 +6190,43 @@
         </is>
       </c>
     </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6227,6 +6227,43 @@
         </is>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6264,6 +6264,43 @@
         </is>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6301,6 +6301,43 @@
         </is>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6338,6 +6338,43 @@
         </is>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6375,6 +6375,43 @@
         </is>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6412,6 +6412,43 @@
         </is>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6449,6 +6449,43 @@
         </is>
       </c>
     </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6486,6 +6486,43 @@
         </is>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6523,6 +6523,80 @@
         </is>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6597,6 +6597,80 @@
         </is>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6671,6 +6671,43 @@
         </is>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6708,6 +6708,43 @@
         </is>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6745,6 +6745,43 @@
         </is>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6782,6 +6782,43 @@
         </is>
       </c>
     </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6819,6 +6819,80 @@
         </is>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6893,6 +6893,43 @@
         </is>
       </c>
     </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6930,6 +6930,43 @@
         </is>
       </c>
     </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6967,6 +6967,43 @@
         </is>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7004,6 +7004,43 @@
         </is>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7041,6 +7041,43 @@
         </is>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I182"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7078,6 +7078,43 @@
         </is>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03020.xlsx
+++ b/data/03020.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I183"/>
+  <dimension ref="A1:I184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7115,6 +7115,43 @@
         </is>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>03020</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>TTV</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
